--- a/utils/process/reports/daily_report.xlsx
+++ b/utils/process/reports/daily_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,29 +422,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Батыгин Антон</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Батыгин Антон</t>
-        </is>
-      </c>
       <c r="C1" t="n">
-        <v>2283</v>
+        <v>2296</v>
       </c>
       <c r="D1" t="n">
-        <v>734069</v>
+        <v>735711</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Башмачников Артем</t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Башмачников Артем</t>
@@ -458,11 +448,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Бровкин Евгений</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Бровкин Евгений</t>
@@ -476,47 +461,32 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Бутова Светлана</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Бутова Светлана</t>
-        </is>
-      </c>
       <c r="C4" t="n">
-        <v>42577</v>
+        <v>42667</v>
       </c>
       <c r="D4" t="n">
-        <v>2072861516</v>
+        <v>2072853027</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Кузнецов Дмитрий</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Кузнецов Дмитрий</t>
-        </is>
-      </c>
       <c r="C5" t="n">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D5" t="n">
-        <v>6750</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ханмамедов Мурад</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Ханмамедов Мурад</t>
@@ -530,11 +500,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Шаров Дмитрий</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Шаров Дмитрий</t>
@@ -548,34 +513,16 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Шевцов Максим</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Шевцов Максим</t>
-        </is>
-      </c>
       <c r="C8" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D8" t="n">
-        <v>-39186</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Шевцов Максим</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>412</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-39186</v>
+        <v>-39272</v>
       </c>
     </row>
   </sheetData>

--- a/utils/process/reports/daily_report.xlsx
+++ b/utils/process/reports/daily_report.xlsx
@@ -16,8 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="### ### ##0"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +27,34 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffff00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00008000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +62,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,116 +453,568 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:D8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="25" customWidth="1" min="17" max="17"/>
+    <col width="25" customWidth="1" min="18" max="18"/>
+    <col width="25" customWidth="1" min="19" max="19"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Батыгин Антон</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>2296</v>
-      </c>
-      <c r="D1" t="n">
-        <v>735711</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>rides 28.1.2023</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>fact rides</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>projection</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>new rides</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>target rides</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>fact vs target</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>projection vs target</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>GMV (fact)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FTR users</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>STR users</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>total(STR+FTR)</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>fact GP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>GP per ride</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>%GP</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>projection GP</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>target GP</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>fact vs target (GP)</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t>projection vs Target(GP)</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Башмачников Артем</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Батыгин Антон</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>360</v>
       </c>
       <c r="D2" t="n">
-        <v>-115</v>
+        <v>396</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>607</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>0.5930807248764415</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>12188.18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>19</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>21209</v>
+      </c>
+      <c r="N2" t="n">
+        <v>58.91</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.740128550776244</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>23328.36</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>100163</v>
+      </c>
+      <c r="R2" s="9" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="S2" s="9" t="n">
+        <v>0.2329039665345486</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Бровкин Евгений</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>334</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Бутова Светлана</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>238</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>3304</v>
       </c>
       <c r="D3" t="n">
-        <v>655451</v>
+        <v>3641</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>3817</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>0.8656012575320933</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>336107.52</v>
+      </c>
+      <c r="J3" t="n">
+        <v>195</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>229</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>754011</v>
+      </c>
+      <c r="N3" t="n">
+        <v>228.21</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.24336248114889</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>830912.61</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>629764</v>
+      </c>
+      <c r="R3" s="11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S3" s="11" t="n">
+        <v>1.319403157373238</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Бутова Светлана</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42667</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Осипова Елена</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>626</v>
       </c>
       <c r="D4" t="n">
-        <v>2072853027</v>
+        <v>689</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>751</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0.833555259653795</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>21961.95</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14</v>
+      </c>
+      <c r="L4" t="n">
+        <v>42</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>41406</v>
+      </c>
+      <c r="N4" t="n">
+        <v>66.14</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.885351710572149</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>45570.46</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>123915</v>
+      </c>
+      <c r="R4" s="9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S4" s="9" t="n">
+        <v>0.3677558003470121</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Кузнецов Дмитрий</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>207</v>
+      <c r="B5" t="n">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>497</v>
       </c>
       <c r="D5" t="n">
-        <v>6006</v>
+        <v>547</v>
+      </c>
+      <c r="E5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>473</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>1.050739957716702</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>48994.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14</v>
+      </c>
+      <c r="L5" t="n">
+        <v>34</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>141735</v>
+      </c>
+      <c r="N5" t="n">
+        <v>285.18</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.892875730949392</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>155993.46</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>78029</v>
+      </c>
+      <c r="R5" s="11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S5" s="11" t="n">
+        <v>1.999172871624652</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ханмамедов Мурад</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Кузнецова Оксана</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>85</v>
       </c>
       <c r="D6" t="n">
-        <v>10947</v>
+        <v>93</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>360</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2364.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1855</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.7844878626406158</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2029.26</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>59400</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>0.03416262626262626</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Шаров Дмитрий</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Шевцов Максим</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>903</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>995</v>
+      </c>
+      <c r="E7" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="F7" s="7" t="n">
+        <v>1188</v>
+      </c>
+      <c r="G7" s="12" t="n">
+        <v>0.7601010101010101</v>
+      </c>
+      <c r="H7" s="12" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>16850.55</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="M7" s="7" t="n">
+        <v>25132</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>1.491464670292661</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>27690.85</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>196070</v>
+      </c>
+      <c r="R7" s="12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S7" s="12" t="n">
+        <v>0.1412294078645382</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Шевцов Максим</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>413</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-39272</v>
+      <c r="C8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="13" t="n"/>
+      <c r="H8" s="13" t="n"/>
+      <c r="I8" s="4" t="n"/>
+      <c r="M8" s="4" t="n"/>
+      <c r="P8" s="4" t="n"/>
+      <c r="Q8" s="4" t="n"/>
+      <c r="R8" s="13" t="n"/>
+      <c r="S8" s="13" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>5775</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>6361</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>7196</v>
+      </c>
+      <c r="G9" s="14" t="n">
+        <v>0.8025291828793775</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>0.8839633129516398</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>438464</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>985348</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>1085522</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>1187341</v>
+      </c>
+      <c r="R9" s="14" t="n">
+        <v>0.8298778531188598</v>
+      </c>
+      <c r="S9" s="15" t="n">
+        <v>0.9142462022283405</v>
       </c>
     </row>
   </sheetData>

--- a/utils/process/reports/daily_report.xlsx
+++ b/utils/process/reports/daily_report.xlsx
@@ -45,12 +45,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffff00"/>
+        <fgColor rgb="00008000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
+        <fgColor rgb="00ffff00"/>
       </patternFill>
     </fill>
   </fills>
@@ -71,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -80,14 +80,16 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -552,7 +554,7 @@
           <t>GP per ride</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>%GP</t>
         </is>
@@ -585,49 +587,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D2" t="n">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="E2" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>607</v>
       </c>
       <c r="G2" s="9" t="n">
-        <v>0.5930807248764415</v>
+        <v>0.6079077429983526</v>
       </c>
       <c r="H2" s="9" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12188.18</v>
+        <v>194719.99</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>21209</v>
+        <v>21527</v>
       </c>
       <c r="N2" t="n">
-        <v>58.91</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.740128550776244</v>
+        <v>58.34</v>
+      </c>
+      <c r="O2" s="10" t="n">
+        <v>0.11</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23328.36</v>
+        <v>23686.04</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>100163</v>
@@ -636,325 +638,326 @@
         <v>0.21</v>
       </c>
       <c r="S2" s="9" t="n">
-        <v>0.2329039665345486</v>
+        <v>0.2364749458382836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Бутова Светлана</t>
+          <t>Кузнецов Дмитрий</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3304</v>
+        <v>522</v>
       </c>
       <c r="D3" t="n">
-        <v>3641</v>
+        <v>575</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3817</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>0.8656012575320933</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <v>0.95</v>
+        <v>473</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>1.103594080338266</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>1.22</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>336107.52</v>
+        <v>627094.6299999999</v>
       </c>
       <c r="J3" t="n">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>754011</v>
+        <v>145161</v>
       </c>
       <c r="N3" t="n">
-        <v>228.21</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.24336248114889</v>
+        <v>278.09</v>
+      </c>
+      <c r="O3" s="10" t="n">
+        <v>0.23</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>830912.61</v>
+        <v>159901.75</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>629764</v>
+        <v>78029</v>
       </c>
       <c r="R3" s="11" t="n">
-        <v>1.2</v>
+        <v>1.86</v>
       </c>
       <c r="S3" s="11" t="n">
-        <v>1.319403157373238</v>
+        <v>2.049260531340912</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Осипова Елена</t>
+          <t>Кузнецова Оксана</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>626</v>
+        <v>87</v>
       </c>
       <c r="D4" t="n">
-        <v>689</v>
+        <v>95</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>751</v>
+        <v>360</v>
       </c>
       <c r="G4" s="9" t="n">
-        <v>0.833555259653795</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <v>0.92</v>
+        <v>0.2416666666666667</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0.26</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21961.95</v>
+        <v>38503.95</v>
       </c>
       <c r="J4" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>41406</v>
+        <v>1875</v>
       </c>
       <c r="N4" t="n">
-        <v>66.14</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.885351710572149</v>
+        <v>21.55</v>
+      </c>
+      <c r="O4" s="10" t="n">
+        <v>0.05</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>45570.46</v>
+        <v>2047.25</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>123915</v>
+        <v>59400</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.3677558003470121</v>
+        <v>0.03446548821548821</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Кузнецов Дмитрий</t>
+          <t>Шевцов Максим</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>497</v>
+        <v>911</v>
       </c>
       <c r="D5" t="n">
-        <v>547</v>
+        <v>1004</v>
       </c>
       <c r="E5" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>473</v>
-      </c>
-      <c r="G5" s="11" t="n">
-        <v>1.050739957716702</v>
-      </c>
-      <c r="H5" s="11" t="n">
-        <v>1.16</v>
+        <v>1188</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0.7668350168350169</v>
+      </c>
+      <c r="H5" s="12" t="n">
+        <v>0.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>48994.5</v>
+        <v>336663.19</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
         <v>14</v>
       </c>
-      <c r="L5" t="n">
-        <v>34</v>
-      </c>
       <c r="M5" s="4" t="n">
-        <v>141735</v>
+        <v>25393</v>
       </c>
       <c r="N5" t="n">
-        <v>285.18</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.892875730949392</v>
+        <v>27.87</v>
+      </c>
+      <c r="O5" s="10" t="n">
+        <v>0.08</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>155993.46</v>
+        <v>27981.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>78029</v>
-      </c>
-      <c r="R5" s="11" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S5" s="11" t="n">
-        <v>1.999172871624652</v>
+        <v>196070</v>
+      </c>
+      <c r="R5" s="9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <v>0.1427116846024379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Кузнецова Оксана</t>
+          <t>Бутова Светлана</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>85</v>
+        <v>3401</v>
       </c>
       <c r="D6" t="n">
-        <v>93</v>
+        <v>3748</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>360</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>0.2361111111111111</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>0.26</v>
+        <v>3817</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>0.8910138852501965</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>0.98</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2364.6</v>
+        <v>4550541.289999999</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1855</v>
+        <v>781466</v>
       </c>
       <c r="N6" t="n">
-        <v>21.82</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.7844878626406158</v>
+        <v>229.78</v>
+      </c>
+      <c r="O6" s="10" t="n">
+        <v>0.17</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2029.26</v>
+        <v>861215.4400000001</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>59400</v>
-      </c>
-      <c r="R6" s="9" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="9" t="n">
-        <v>0.03416262626262626</v>
+        <v>629764</v>
+      </c>
+      <c r="R6" s="11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S6" s="11" t="n">
+        <v>1.36752091259583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>Шевцов Максим</t>
+          <t>Осипова Елена</t>
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>903</v>
+        <v>652</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>995</v>
+        <v>718</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>1188</v>
-      </c>
-      <c r="G7" s="12" t="n">
-        <v>0.7601010101010101</v>
-      </c>
-      <c r="H7" s="12" t="n">
-        <v>0.84</v>
+        <v>751</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>0.8681757656458056</v>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>0.96</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>16850.55</v>
+        <v>295222</v>
       </c>
       <c r="J7" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="L7" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="K7" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>48</v>
-      </c>
       <c r="M7" s="7" t="n">
-        <v>25132</v>
+        <v>42931</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>27.83</v>
-      </c>
-      <c r="O7" s="6" t="n">
-        <v>1.491464670292661</v>
+        <v>65.84999999999999</v>
+      </c>
+      <c r="O7" s="14" t="n">
+        <v>0.15</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>27690.85</v>
+        <v>47280.3</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>196070</v>
-      </c>
-      <c r="R7" s="12" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S7" s="12" t="n">
-        <v>0.1412294078645382</v>
+        <v>123915</v>
+      </c>
+      <c r="R7" s="15" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S7" s="15" t="n">
+        <v>0.3815542912480329</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="4" t="n"/>
       <c r="F8" s="4" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="13" t="n"/>
+      <c r="G8" s="10" t="n"/>
+      <c r="H8" s="10" t="n"/>
       <c r="I8" s="4" t="n"/>
       <c r="M8" s="4" t="n"/>
+      <c r="O8" s="10" t="n"/>
       <c r="P8" s="4" t="n"/>
       <c r="Q8" s="4" t="n"/>
-      <c r="R8" s="13" t="n"/>
-      <c r="S8" s="13" t="n"/>
+      <c r="R8" s="10" t="n"/>
+      <c r="S8" s="10" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -963,58 +966,58 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>410</v>
+        <v>307</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>5775</v>
+        <v>5942</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>6361</v>
+        <v>6546</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>7196</v>
       </c>
-      <c r="G9" s="14" t="n">
-        <v>0.8025291828793775</v>
-      </c>
-      <c r="H9" s="15" t="n">
-        <v>0.8839633129516398</v>
+      <c r="G9" s="16" t="n">
+        <v>0.8257365202890494</v>
+      </c>
+      <c r="H9" s="17" t="n">
+        <v>0.9096720400222346</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>438464</v>
+        <v>6042742</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>375</v>
+        <v>273</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>985348</v>
+        <v>1018353</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>7</v>
+        <v>171</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0.1681491614237378</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1085522</v>
+        <v>1122110</v>
       </c>
       <c r="Q9" s="2" t="n">
         <v>1187341</v>
       </c>
-      <c r="R9" s="14" t="n">
-        <v>0.8298778531188598</v>
-      </c>
-      <c r="S9" s="15" t="n">
-        <v>0.9142462022283405</v>
+      <c r="R9" s="17" t="n">
+        <v>0.8576752592557656</v>
+      </c>
+      <c r="S9" s="17" t="n">
+        <v>0.9450612755728978</v>
       </c>
     </row>
   </sheetData>
